--- a/results/mp/deberta/corona/confidence/168/stop-words-desired-0.1/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-desired-0.1/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="931">
   <si>
     <t>anchor score</t>
   </si>
@@ -334,706 +334,706 @@
     <t>credit</t>
   </si>
   <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>stolen</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>chance</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>fault</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>tuesday</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>guide</t>
+  </si>
+  <si>
+    <t>challenges</t>
+  </si>
+  <si>
+    <t>entire</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>suppliers</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>nurses</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>rising</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>partners</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>humor</t>
+  </si>
+  <si>
+    <t>brad</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>thankful</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>stolen</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>launched</t>
-  </si>
-  <si>
-    <t>adapt</t>
-  </si>
-  <si>
-    <t>chance</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>victim</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>review</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>fault</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>significant</t>
-  </si>
-  <si>
-    <t>etc</t>
-  </si>
-  <si>
-    <t>complaint</t>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>paisley</t>
+  </si>
+  <si>
+    <t>assure</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>safer</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>shower</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>downtown</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>appreciation</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>tuesday</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>guide</t>
-  </si>
-  <si>
-    <t>challenges</t>
-  </si>
-  <si>
-    <t>entire</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>suppliers</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>personal</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>nurses</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>rising</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>episode</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>partners</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>garden</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>brad</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>thankful</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>affordable</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>paisley</t>
-  </si>
-  <si>
-    <t>assure</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>director</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>safer</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>shower</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>practice</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>downtown</t>
-  </si>
-  <si>
-    <t>overall</t>
-  </si>
-  <si>
-    <t>internet</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>appreciation</t>
   </si>
   <si>
     <t>initiative</t>
@@ -3175,7 +3175,7 @@
         <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -3754,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -3804,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -3854,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -3904,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -4004,7 +4004,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -4054,7 +4054,7 @@
         <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -4104,7 +4104,7 @@
         <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -4254,7 +4254,7 @@
         <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K23">
         <v>0.9444444444444444</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K25">
         <v>0.9361702127659575</v>
@@ -4404,7 +4404,7 @@
         <v>3</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K26">
         <v>0.9333333333333333</v>
@@ -4454,7 +4454,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K27">
         <v>0.9333333333333333</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K29">
         <v>0.9230769230769231</v>
@@ -4704,7 +4704,7 @@
         <v>13</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K32">
         <v>0.9090909090909091</v>
@@ -4804,7 +4804,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K34">
         <v>0.889763779527559</v>
@@ -4854,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K35">
         <v>0.8888888888888888</v>
@@ -4904,7 +4904,7 @@
         <v>2</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K36">
         <v>0.8888888888888888</v>
@@ -5104,7 +5104,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K40">
         <v>0.875</v>
@@ -5154,7 +5154,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K41">
         <v>0.875</v>
@@ -5204,7 +5204,7 @@
         <v>4</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K42">
         <v>0.8571428571428571</v>
@@ -5254,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K43">
         <v>0.8571428571428571</v>
@@ -5304,7 +5304,7 @@
         <v>8</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K44">
         <v>0.8571428571428571</v>
@@ -5454,7 +5454,7 @@
         <v>4</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K47">
         <v>0.8518518518518519</v>
@@ -5504,7 +5504,7 @@
         <v>4</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K48">
         <v>0.85</v>
@@ -5554,7 +5554,7 @@
         <v>3</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K49">
         <v>0.8461538461538461</v>
@@ -5604,7 +5604,7 @@
         <v>3</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K50">
         <v>0.8461538461538461</v>
@@ -5654,7 +5654,7 @@
         <v>3</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K51">
         <v>0.8421052631578947</v>
@@ -5754,7 +5754,7 @@
         <v>4</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K53">
         <v>0.8333333333333334</v>
@@ -5854,7 +5854,7 @@
         <v>4</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K55">
         <v>0.8333333333333334</v>
@@ -5904,7 +5904,7 @@
         <v>4</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K56">
         <v>0.8333333333333334</v>
@@ -5954,7 +5954,7 @@
         <v>4</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K57">
         <v>0.8333333333333334</v>
@@ -6004,7 +6004,7 @@
         <v>2</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K58">
         <v>0.8333333333333334</v>
@@ -6054,7 +6054,7 @@
         <v>2</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K59">
         <v>0.8333333333333334</v>
@@ -6104,7 +6104,7 @@
         <v>2</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K60">
         <v>0.8333333333333334</v>
@@ -6204,7 +6204,7 @@
         <v>2</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K62">
         <v>0.8214285714285714</v>
@@ -6254,7 +6254,7 @@
         <v>2</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K63">
         <v>0.8181818181818182</v>
@@ -6304,7 +6304,7 @@
         <v>2</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K64">
         <v>0.8181818181818182</v>
@@ -6354,7 +6354,7 @@
         <v>2</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K65">
         <v>0.8181818181818182</v>
@@ -6404,7 +6404,7 @@
         <v>2</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K66">
         <v>0.8141025641025641</v>
@@ -6454,7 +6454,7 @@
         <v>9</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K67">
         <v>0.8095238095238095</v>
@@ -6504,7 +6504,7 @@
         <v>5</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K68">
         <v>0.8085106382978723</v>
@@ -6554,7 +6554,7 @@
         <v>5</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K69">
         <v>0.8</v>
@@ -6604,7 +6604,7 @@
         <v>8</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K70">
         <v>0.8</v>
@@ -6704,7 +6704,7 @@
         <v>14</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K72">
         <v>0.8</v>
@@ -6854,7 +6854,7 @@
         <v>3</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K75">
         <v>0.8</v>
@@ -7054,28 +7054,28 @@
         <v>9</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>106</v>
+        <v>307</v>
       </c>
       <c r="K79">
-        <v>0.7665198237885462</v>
+        <v>0.75</v>
       </c>
       <c r="L79">
-        <v>174</v>
+        <v>6</v>
       </c>
       <c r="M79">
-        <v>186</v>
+        <v>6</v>
       </c>
       <c r="N79">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -7104,16 +7104,16 @@
         <v>3</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K80">
         <v>0.75</v>
       </c>
       <c r="L80">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M80">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -7125,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -7154,28 +7154,28 @@
         <v>3</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>310</v>
+        <v>33</v>
       </c>
       <c r="K81">
         <v>0.75</v>
       </c>
       <c r="L81">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M81">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -7204,7 +7204,7 @@
         <v>3</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="K82">
         <v>0.75</v>
@@ -7213,13 +7213,13 @@
         <v>6</v>
       </c>
       <c r="M82">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N82">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="O82">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
@@ -7254,7 +7254,7 @@
         <v>3</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>69</v>
+        <v>309</v>
       </c>
       <c r="K83">
         <v>0.75</v>
@@ -7263,16 +7263,16 @@
         <v>6</v>
       </c>
       <c r="M83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N83">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -7304,7 +7304,7 @@
         <v>3</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K84">
         <v>0.75</v>
@@ -7354,28 +7354,28 @@
         <v>7</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>312</v>
+        <v>95</v>
       </c>
       <c r="K85">
-        <v>0.75</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L85">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="M85">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -7404,28 +7404,28 @@
         <v>15</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>95</v>
+        <v>311</v>
       </c>
       <c r="K86">
         <v>0.7333333333333333</v>
       </c>
       <c r="L86">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="M86">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="N86">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -7454,16 +7454,16 @@
         <v>4</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K87">
-        <v>0.7333333333333333</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L87">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="M87">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -7475,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -7504,7 +7504,7 @@
         <v>4</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K88">
         <v>0.7272727272727273</v>
@@ -7604,7 +7604,7 @@
         <v>12</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K90">
         <v>0.7272727272727273</v>
@@ -7704,7 +7704,7 @@
         <v>4</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K92">
         <v>0.7222222222222222</v>
@@ -7754,7 +7754,7 @@
         <v>4</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K93">
         <v>0.7142857142857143</v>
@@ -7804,7 +7804,7 @@
         <v>4</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K94">
         <v>0.7142857142857143</v>
@@ -7854,7 +7854,7 @@
         <v>4</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K95">
         <v>0.7142857142857143</v>
@@ -7904,7 +7904,7 @@
         <v>8</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K96">
         <v>0.7142857142857143</v>
@@ -7954,7 +7954,7 @@
         <v>4</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K97">
         <v>0.7142857142857143</v>
@@ -8004,7 +8004,7 @@
         <v>4</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K98">
         <v>0.7083333333333334</v>
@@ -8054,7 +8054,7 @@
         <v>21</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K99">
         <v>0.7073170731707317</v>
@@ -8133,28 +8133,28 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1846153846153846</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C101">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D101">
-        <v>186</v>
+        <v>17</v>
       </c>
       <c r="E101">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F101">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K101">
         <v>0.7058823529411765</v>
@@ -8183,28 +8183,28 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1818181818181818</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D102">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E102">
-        <v>0.88</v>
+        <v>0.73</v>
       </c>
       <c r="F102">
-        <v>0.12</v>
+        <v>0.27</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K102">
         <v>0.7</v>
@@ -8233,25 +8233,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.1764705882352941</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="G103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>54</v>
@@ -8286,10 +8286,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>85</v>
@@ -8336,25 +8336,25 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105">
         <v>2</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K105">
         <v>0.6956521739130435</v>
@@ -8389,13 +8389,13 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E106">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F106">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
@@ -8404,7 +8404,7 @@
         <v>5</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K106">
         <v>0.6818181818181818</v>
@@ -8439,13 +8439,13 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E107">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F107">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
@@ -8454,7 +8454,7 @@
         <v>5</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K107">
         <v>0.6666666666666666</v>
@@ -8489,13 +8489,13 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E108">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F108">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
@@ -8504,7 +8504,7 @@
         <v>5</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K108">
         <v>0.6666666666666666</v>
@@ -8533,28 +8533,28 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.1666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E109">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F109">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K109">
         <v>0.6666666666666666</v>
@@ -8583,28 +8583,28 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.1538461538461539</v>
+        <v>0.15</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D110">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E110">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K110">
         <v>0.6666666666666666</v>
@@ -8633,7 +8633,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.15</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>67</v>
@@ -8686,10 +8686,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -8701,10 +8701,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K112">
         <v>0.6666666666666666</v>
@@ -8739,16 +8739,16 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
         <v>6</v>
@@ -8786,25 +8786,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D114">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E114">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F114">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K114">
         <v>0.6666666666666666</v>
@@ -8836,25 +8836,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C115">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K115">
         <v>0.6666666666666666</v>
@@ -8886,25 +8886,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K116">
         <v>0.6666666666666666</v>
@@ -8939,13 +8939,13 @@
         <v>2</v>
       </c>
       <c r="D117">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E117">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F117">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
@@ -8954,7 +8954,7 @@
         <v>12</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K117">
         <v>0.6666666666666666</v>
@@ -8986,25 +8986,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K118">
         <v>0.6666666666666666</v>
@@ -9054,7 +9054,7 @@
         <v>6</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K119">
         <v>0.6666666666666666</v>
@@ -9083,28 +9083,28 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.1428571428571428</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K120">
         <v>0.6666666666666666</v>
@@ -9133,28 +9133,28 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.1379310344827586</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C121">
         <v>4</v>
       </c>
       <c r="D121">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="E121">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K121">
         <v>0.6666666666666666</v>
@@ -9183,28 +9183,28 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.1290322580645161</v>
+        <v>0.125</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K122">
         <v>0.6468531468531469</v>
@@ -9239,13 +9239,13 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E123">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F123">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
@@ -9254,7 +9254,7 @@
         <v>7</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K123">
         <v>0.6428571428571429</v>
@@ -9289,13 +9289,13 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E124">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F124">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
@@ -9339,13 +9339,13 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E125">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F125">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
@@ -9354,7 +9354,7 @@
         <v>7</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K125">
         <v>0.6410256410256411</v>
@@ -9383,28 +9383,28 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D126">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="E126">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F126">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K126">
         <v>0.640625</v>
@@ -9433,25 +9433,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.1212121212121212</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="E127">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F127">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>93</v>
@@ -9489,13 +9489,13 @@
         <v>1</v>
       </c>
       <c r="D128">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E128">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F128">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
@@ -9504,7 +9504,7 @@
         <v>8</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K128">
         <v>0.6363636363636364</v>
@@ -9539,13 +9539,13 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E129">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F129">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
@@ -9583,28 +9583,28 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E130">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K130">
         <v>0.6363636363636364</v>
@@ -9633,13 +9633,13 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.1052631578947368</v>
+        <v>0.1027131782945736</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -9651,7 +9651,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>17</v>
+        <v>463</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>101</v>
@@ -9683,37 +9683,37 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.1027131782945736</v>
+        <v>0.1</v>
       </c>
       <c r="C132">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <v>463</v>
+        <v>9</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K132">
-        <v>0.6299694189602446</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L132">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="M132">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="N132">
         <v>0.9399999999999999</v>
@@ -9725,7 +9725,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:17">
@@ -9739,13 +9739,13 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="E133">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="F133">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
@@ -9754,28 +9754,28 @@
         <v>9</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="K133">
-        <v>0.6296296296296297</v>
+        <v>0.625</v>
       </c>
       <c r="L133">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="M133">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N133">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="O133">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="P133" t="b">
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:17">
@@ -9789,13 +9789,13 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E134">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F134">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
@@ -9804,28 +9804,28 @@
         <v>9</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="K134">
         <v>0.625</v>
       </c>
       <c r="L134">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M134">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N134">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="O134">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="P134" t="b">
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:17">
@@ -9836,46 +9836,46 @@
         <v>0.1</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E135">
-        <v>0.5</v>
+        <v>0.82</v>
       </c>
       <c r="F135">
-        <v>0.5</v>
+        <v>0.18</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>107</v>
+        <v>338</v>
       </c>
       <c r="K135">
         <v>0.625</v>
       </c>
       <c r="L135">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M135">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N135">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O135">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q135">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:17">
@@ -9886,46 +9886,46 @@
         <v>0.1</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E136">
-        <v>0.82</v>
+        <v>0.67</v>
       </c>
       <c r="F136">
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>339</v>
+        <v>113</v>
       </c>
       <c r="K136">
-        <v>0.625</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L136">
+        <v>8</v>
+      </c>
+      <c r="M136">
+        <v>9</v>
+      </c>
+      <c r="N136">
+        <v>0.89</v>
+      </c>
+      <c r="O136">
+        <v>0.11</v>
+      </c>
+      <c r="P136" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q136">
         <v>5</v>
-      </c>
-      <c r="M136">
-        <v>5</v>
-      </c>
-      <c r="N136">
-        <v>1</v>
-      </c>
-      <c r="O136">
-        <v>0</v>
-      </c>
-      <c r="P136" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q136">
-        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:17">
@@ -9936,46 +9936,46 @@
         <v>0.1</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E137">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="F137">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>114</v>
+        <v>339</v>
       </c>
       <c r="K137">
-        <v>0.6153846153846154</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L137">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="M137">
-        <v>9</v>
+        <v>206</v>
       </c>
       <c r="N137">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O137">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q137">
-        <v>5</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:17">
@@ -9986,25 +9986,25 @@
         <v>0.1</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E138">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K138">
         <v>0.6010498687664042</v>
@@ -10033,7 +10033,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10051,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>65</v>
@@ -10083,25 +10083,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.09701492537313433</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C140">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>219</v>
+        <v>2</v>
       </c>
       <c r="E140">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F140">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>340</v>
@@ -10189,13 +10189,13 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E142">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F142">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
@@ -10204,7 +10204,7 @@
         <v>10</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K142">
         <v>0.6</v>
@@ -10233,7 +10233,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>342</v>
@@ -10283,25 +10283,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E144">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>63</v>
@@ -10386,25 +10386,25 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K146">
         <v>0.5813953488372093</v>
@@ -10439,16 +10439,16 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147">
         <v>11</v>
@@ -10489,13 +10489,13 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E148">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F148">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
@@ -10539,16 +10539,16 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
         <v>11</v>
@@ -10583,25 +10583,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.08333333333333333</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="E150">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F150">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>346</v>
@@ -10633,25 +10633,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>347</v>
@@ -10683,25 +10683,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.08181818181818182</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C152">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D152">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="E152">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F152">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>348</v>
@@ -10739,13 +10739,13 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E153">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F153">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
@@ -10786,22 +10786,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>350</v>
@@ -10833,25 +10833,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E155">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F155">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>351</v>
@@ -10883,7 +10883,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>352</v>
@@ -10939,13 +10939,13 @@
         <v>1</v>
       </c>
       <c r="D157">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E157">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F157">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
@@ -10983,7 +10983,7 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>354</v>
@@ -11033,25 +11033,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="E159">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="F159">
-        <v>0.25</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>355</v>
@@ -11089,16 +11089,16 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
         <v>14</v>
@@ -11139,16 +11139,16 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
         <v>14</v>
@@ -11186,25 +11186,25 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K162">
         <v>0.5294117647058824</v>
@@ -11239,16 +11239,16 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
         <v>14</v>
@@ -11283,13 +11283,13 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -11301,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>98</v>
@@ -11333,28 +11333,28 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K165">
         <v>0.5</v>
@@ -11389,16 +11389,16 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
         <v>15</v>
@@ -11439,16 +11439,16 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
         <v>15</v>
@@ -11489,13 +11489,13 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E168">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F168">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
@@ -11539,13 +11539,13 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E169">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="F169">
-        <v>0.11</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
@@ -11554,7 +11554,7 @@
         <v>15</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K169">
         <v>0.5</v>
@@ -11583,25 +11583,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E170">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>362</v>
@@ -11633,25 +11633,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E171">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F171">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>363</v>
@@ -11686,22 +11686,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>364</v>
@@ -11733,25 +11733,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E173">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F173">
-        <v>0.06999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>365</v>
@@ -11783,7 +11783,7 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -11801,7 +11801,7 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>82</v>
@@ -11833,25 +11833,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>366</v>
@@ -11883,25 +11883,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E176">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F176">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>367</v>
@@ -11933,25 +11933,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>368</v>
@@ -11983,25 +11983,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E178">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F178">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>369</v>
@@ -12039,16 +12039,16 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
         <v>19</v>
@@ -12083,25 +12083,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E180">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F180">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>370</v>
@@ -12133,25 +12133,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>88</v>
@@ -12183,25 +12183,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E182">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F182">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>41</v>
@@ -12233,25 +12233,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E183">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>371</v>
@@ -12283,28 +12283,28 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E184">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F184">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K184">
         <v>0.4878048780487805</v>
@@ -12333,7 +12333,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12351,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>372</v>
@@ -12389,16 +12389,16 @@
         <v>1</v>
       </c>
       <c r="D186">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
         <v>22</v>
@@ -12439,16 +12439,16 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
         <v>22</v>
@@ -12504,7 +12504,7 @@
         <v>22</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K188">
         <v>0.4772727272727273</v>
@@ -12533,25 +12533,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E189">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="F189">
-        <v>0.14</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>375</v>
@@ -12583,25 +12583,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>376</v>
@@ -12636,25 +12636,25 @@
         <v>0.04166666666666666</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E191">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F191">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K191">
         <v>0.4666666666666667</v>
@@ -12689,13 +12689,13 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E192">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F192">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
@@ -12704,7 +12704,7 @@
         <v>23</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K192">
         <v>0.4666666666666667</v>
@@ -12733,25 +12733,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="E193">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="F193">
-        <v>0.02000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>377</v>
@@ -12783,25 +12783,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E194">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>378</v>
@@ -12839,16 +12839,16 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E195">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
         <v>24</v>
@@ -12883,7 +12883,7 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -12901,7 +12901,7 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>380</v>
@@ -12933,25 +12933,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>381</v>
@@ -12983,7 +12983,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -13001,7 +13001,7 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>382</v>
@@ -13033,25 +13033,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E199">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F199">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>91</v>
@@ -13083,25 +13083,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>383</v>
@@ -13133,25 +13133,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.03703703703703703</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E201">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>384</v>
@@ -13183,25 +13183,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.03571428571428571</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="E202">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>385</v>
@@ -13233,25 +13233,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>386</v>
@@ -13283,7 +13283,7 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>387</v>
@@ -13333,25 +13333,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.03225806451612903</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E205">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F205">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>388</v>
@@ -13383,7 +13383,7 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.03125</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -13401,7 +13401,7 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>99</v>
@@ -13433,25 +13433,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0303030303030303</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E207">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F207">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>389</v>
@@ -13483,25 +13483,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>102</v>
@@ -13533,25 +13533,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E209">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>390</v>
@@ -13583,25 +13583,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.02702702702702703</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E210">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>391</v>
@@ -13633,7 +13633,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.02702702702702703</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -13651,7 +13651,7 @@
         <v>0</v>
       </c>
       <c r="H211">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>392</v>
@@ -13683,13 +13683,13 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02597402597402598</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -13701,7 +13701,7 @@
         <v>0</v>
       </c>
       <c r="H212">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>393</v>
@@ -13739,16 +13739,16 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213">
         <v>38</v>
@@ -13783,7 +13783,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -13801,7 +13801,7 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>395</v>
@@ -13833,28 +13833,28 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02564102564102564</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E215">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F215">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K215">
         <v>0.4</v>
@@ -13883,7 +13883,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>396</v>
@@ -13933,25 +13933,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02380952380952381</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E217">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F217">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>397</v>
@@ -13983,7 +13983,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02380952380952381</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14001,7 +14001,7 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>398</v>
@@ -14033,25 +14033,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02222222222222222</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E219">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F219">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>399</v>
@@ -14089,16 +14089,16 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
         <v>50</v>
@@ -14133,25 +14133,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E221">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="F221">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>80</v>
@@ -14183,25 +14183,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0196078431372549</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E222">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>79</v>
@@ -14233,28 +14233,28 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.01923076923076923</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E223">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K223">
         <v>0.396551724137931</v>
@@ -14283,25 +14283,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>401</v>
@@ -14333,25 +14333,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>402</v>
@@ -14383,25 +14383,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01785714285714286</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E226">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F226">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>403</v>
@@ -14433,25 +14433,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.01754385964912281</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E227">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="F227">
-        <v>0.08999999999999997</v>
+        <v>0.33</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>404</v>
@@ -14483,28 +14483,28 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01666666666666667</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E228">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F228">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K228">
         <v>0.3809523809523809</v>
@@ -14533,25 +14533,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.01639344262295082</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D229">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E229">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F229">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>405</v>
@@ -14583,25 +14583,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01612903225806452</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E230">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>406</v>
@@ -14633,25 +14633,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01481481481481482</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C231">
         <v>2</v>
       </c>
       <c r="D231">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="E231">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F231">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>407</v>
@@ -14683,25 +14683,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.01351351351351351</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H232">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>408</v>
@@ -14733,25 +14733,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01298701298701299</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c r="E233">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F233">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>409</v>
@@ -14783,7 +14783,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0108695652173913</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14801,7 +14801,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>410</v>
@@ -14833,7 +14833,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.01020408163265306</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -14851,7 +14851,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>411</v>
@@ -14883,25 +14883,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01020408163265306</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E236">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F236">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>412</v>
@@ -14933,25 +14933,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.009523809523809525</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E237">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="F237">
-        <v>0.06999999999999995</v>
+        <v>0.15</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>413</v>
@@ -14983,28 +14983,28 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.009433962264150943</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E238">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F238">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K238">
         <v>0.375</v>
@@ -15033,28 +15033,28 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.008849557522123894</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E239">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="F239">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>224</v>
+        <v>126</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K239">
         <v>0.3684210526315789</v>
@@ -15083,28 +15083,28 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.008771929824561403</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E240">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F240">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K240">
         <v>0.3666666666666666</v>
@@ -15133,28 +15133,28 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.007874015748031496</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K241">
         <v>0.3658536585365854</v>
@@ -15183,25 +15183,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.006944444444444444</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E242">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F242">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>414</v>
@@ -15233,7 +15233,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.006711409395973154</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15251,10 +15251,10 @@
         <v>0</v>
       </c>
       <c r="H243">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K243">
         <v>0.3636363636363636</v>
@@ -15283,25 +15283,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.006622516556291391</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D244">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="E244">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="F244">
-        <v>0.02000000000000002</v>
+        <v>0.11</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>415</v>
@@ -15333,28 +15333,28 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.006024096385542169</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F245">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K245">
         <v>0.3636363636363636</v>
@@ -15383,25 +15383,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.006024096385542169</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="C246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E246">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H246">
-        <v>330</v>
+        <v>190</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>416</v>
@@ -15433,13 +15433,13 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.005263157894736842</v>
+        <v>0.005031446540880503</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D247">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="E247">
         <v>0.96</v>
@@ -15451,10 +15451,10 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>189</v>
+        <v>791</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K247">
         <v>0.3636363636363636</v>
@@ -15483,25 +15483,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.005235602094240838</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>417</v>
@@ -15533,25 +15533,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.005031446540880503</v>
+        <v>0.003289473684210526</v>
       </c>
       <c r="C249">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D249">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="E249">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F249">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>791</v>
+        <v>303</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>418</v>
@@ -15583,25 +15583,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.004444444444444444</v>
+        <v>0.003236245954692557</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E250">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F250">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>419</v>
@@ -15633,25 +15633,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.003289473684210526</v>
+        <v>0.003125</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="E251">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F251">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>420</v>
@@ -15683,28 +15683,28 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.003236245954692557</v>
+        <v>0.003112033195020747</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D252">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E252">
-        <v>0.95</v>
+        <v>0.57</v>
       </c>
       <c r="F252">
-        <v>0.05000000000000004</v>
+        <v>0.43</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>308</v>
+        <v>961</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K252">
         <v>0.3529411764705883</v>
@@ -15733,28 +15733,28 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.003125</v>
+        <v>0.0025</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="E253">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F253">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>319</v>
+        <v>399</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K253">
         <v>0.352112676056338</v>
@@ -15783,28 +15783,28 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.003112033195020747</v>
+        <v>0.001577287066246057</v>
       </c>
       <c r="C254">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E254">
-        <v>0.57</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F254">
-        <v>0.43</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>961</v>
+        <v>633</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K254">
         <v>0.3506493506493507</v>
@@ -15833,28 +15833,28 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0025</v>
+        <v>0.001183431952662722</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E255">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F255">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>399</v>
+        <v>844</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K255">
         <v>0.3478260869565217</v>
@@ -15883,25 +15883,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.001577287066246057</v>
+        <v>0.001140250855188141</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E256">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F256">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>633</v>
+        <v>876</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>421</v>
@@ -15933,25 +15933,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.001183431952662722</v>
+        <v>0.0009993337774816789</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D257">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="E257">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F257">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>844</v>
+        <v>2999</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>422</v>
@@ -15979,30 +15979,6 @@
       </c>
     </row>
     <row r="258" spans="1:17">
-      <c r="A258" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B258">
-        <v>0.001140250855188141</v>
-      </c>
-      <c r="C258">
-        <v>1</v>
-      </c>
-      <c r="D258">
-        <v>25</v>
-      </c>
-      <c r="E258">
-        <v>0.96</v>
-      </c>
-      <c r="F258">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G258" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258">
-        <v>876</v>
-      </c>
       <c r="J258" s="1" t="s">
         <v>423</v>
       </c>
@@ -16029,30 +16005,6 @@
       </c>
     </row>
     <row r="259" spans="1:17">
-      <c r="A259" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B259">
-        <v>0.0009993337774816789</v>
-      </c>
-      <c r="C259">
-        <v>3</v>
-      </c>
-      <c r="D259">
-        <v>108</v>
-      </c>
-      <c r="E259">
-        <v>0.97</v>
-      </c>
-      <c r="F259">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G259" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259">
-        <v>2999</v>
-      </c>
       <c r="J259" s="1" t="s">
         <v>424</v>
       </c>
@@ -16080,7 +16032,7 @@
     </row>
     <row r="260" spans="1:17">
       <c r="J260" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K260">
         <v>0.3333333333333333</v>
@@ -16340,7 +16292,7 @@
     </row>
     <row r="270" spans="1:17">
       <c r="J270" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K270">
         <v>0.3333333333333333</v>
@@ -16444,7 +16396,7 @@
     </row>
     <row r="274" spans="10:17">
       <c r="J274" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K274">
         <v>0.3214285714285715</v>
@@ -16470,7 +16422,7 @@
     </row>
     <row r="275" spans="10:17">
       <c r="J275" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K275">
         <v>0.3181818181818182</v>
@@ -16496,7 +16448,7 @@
     </row>
     <row r="276" spans="10:17">
       <c r="J276" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K276">
         <v>0.3076923076923077</v>
@@ -16522,7 +16474,7 @@
     </row>
     <row r="277" spans="10:17">
       <c r="J277" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K277">
         <v>0.3076923076923077</v>
@@ -16548,7 +16500,7 @@
     </row>
     <row r="278" spans="10:17">
       <c r="J278" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K278">
         <v>0.3076923076923077</v>
@@ -16756,7 +16708,7 @@
     </row>
     <row r="286" spans="10:17">
       <c r="J286" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K286">
         <v>0.2990654205607476</v>
@@ -16938,7 +16890,7 @@
     </row>
     <row r="293" spans="10:17">
       <c r="J293" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K293">
         <v>0.2857142857142857</v>
@@ -17302,7 +17254,7 @@
     </row>
     <row r="307" spans="10:17">
       <c r="J307" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K307">
         <v>0.2678571428571428</v>
@@ -17328,7 +17280,7 @@
     </row>
     <row r="308" spans="10:17">
       <c r="J308" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K308">
         <v>0.2666666666666667</v>
@@ -17354,7 +17306,7 @@
     </row>
     <row r="309" spans="10:17">
       <c r="J309" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K309">
         <v>0.2666666666666667</v>
@@ -17926,7 +17878,7 @@
     </row>
     <row r="331" spans="10:17">
       <c r="J331" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K331">
         <v>0.2350119904076739</v>
@@ -18004,7 +17956,7 @@
     </row>
     <row r="334" spans="10:17">
       <c r="J334" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K334">
         <v>0.2307692307692308</v>
@@ -18056,7 +18008,7 @@
     </row>
     <row r="336" spans="10:17">
       <c r="J336" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K336">
         <v>0.2253521126760563</v>
@@ -18420,7 +18372,7 @@
     </row>
     <row r="350" spans="10:17">
       <c r="J350" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K350">
         <v>0.2173913043478261</v>
@@ -18472,7 +18424,7 @@
     </row>
     <row r="352" spans="10:17">
       <c r="J352" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K352">
         <v>0.2142857142857143</v>
@@ -18602,7 +18554,7 @@
     </row>
     <row r="357" spans="10:17">
       <c r="J357" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K357">
         <v>0.2045454545454546</v>
@@ -18706,7 +18658,7 @@
     </row>
     <row r="361" spans="10:17">
       <c r="J361" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K361">
         <v>0.2</v>
@@ -19122,7 +19074,7 @@
     </row>
     <row r="377" spans="10:17">
       <c r="J377" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K377">
         <v>0.1935483870967742</v>
@@ -19356,7 +19308,7 @@
     </row>
     <row r="386" spans="10:17">
       <c r="J386" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K386">
         <v>0.1875</v>
@@ -19460,7 +19412,7 @@
     </row>
     <row r="390" spans="10:17">
       <c r="J390" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K390">
         <v>0.1818181818181818</v>
@@ -19616,7 +19568,7 @@
     </row>
     <row r="396" spans="10:17">
       <c r="J396" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K396">
         <v>0.1785714285714286</v>
@@ -20084,7 +20036,7 @@
     </row>
     <row r="414" spans="10:17">
       <c r="J414" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K414">
         <v>0.1666666666666667</v>
@@ -20370,7 +20322,7 @@
     </row>
     <row r="425" spans="10:17">
       <c r="J425" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K425">
         <v>0.1538461538461539</v>
@@ -20448,7 +20400,7 @@
     </row>
     <row r="428" spans="10:17">
       <c r="J428" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K428">
         <v>0.1538461538461539</v>
@@ -20500,7 +20452,7 @@
     </row>
     <row r="430" spans="10:17">
       <c r="J430" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K430">
         <v>0.1528662420382166</v>
@@ -20526,7 +20478,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K431">
         <v>0.1515151515151515</v>
@@ -20864,7 +20816,7 @@
     </row>
     <row r="444" spans="10:17">
       <c r="J444" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K444">
         <v>0.1428571428571428</v>
@@ -21228,7 +21180,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K458">
         <v>0.1261261261261261</v>
@@ -21722,7 +21674,7 @@
     </row>
     <row r="477" spans="10:17">
       <c r="J477" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K477">
         <v>0.1186440677966102</v>
@@ -21748,7 +21700,7 @@
     </row>
     <row r="478" spans="10:17">
       <c r="J478" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K478">
         <v>0.1176470588235294</v>
@@ -21774,7 +21726,7 @@
     </row>
     <row r="479" spans="10:17">
       <c r="J479" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K479">
         <v>0.1172839506172839</v>
@@ -21800,7 +21752,7 @@
     </row>
     <row r="480" spans="10:17">
       <c r="J480" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K480">
         <v>0.1168224299065421</v>
@@ -21904,7 +21856,7 @@
     </row>
     <row r="484" spans="10:17">
       <c r="J484" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K484">
         <v>0.1112359550561798</v>
@@ -22086,7 +22038,7 @@
     </row>
     <row r="491" spans="10:17">
       <c r="J491" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K491">
         <v>0.1111111111111111</v>
@@ -22372,7 +22324,7 @@
     </row>
     <row r="502" spans="10:17">
       <c r="J502" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K502">
         <v>0.1060606060606061</v>
@@ -22398,7 +22350,7 @@
     </row>
     <row r="503" spans="10:17">
       <c r="J503" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K503">
         <v>0.1052631578947368</v>
@@ -22450,7 +22402,7 @@
     </row>
     <row r="505" spans="10:17">
       <c r="J505" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K505">
         <v>0.1052631578947368</v>
@@ -22502,7 +22454,7 @@
     </row>
     <row r="507" spans="10:17">
       <c r="J507" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K507">
         <v>0.1031746031746032</v>
@@ -22710,7 +22662,7 @@
     </row>
     <row r="515" spans="10:17">
       <c r="J515" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K515">
         <v>0.1</v>
@@ -22918,7 +22870,7 @@
     </row>
     <row r="523" spans="10:17">
       <c r="J523" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K523">
         <v>0.09523809523809523</v>
@@ -22996,7 +22948,7 @@
     </row>
     <row r="526" spans="10:17">
       <c r="J526" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K526">
         <v>0.09090909090909091</v>
@@ -24920,7 +24872,7 @@
     </row>
     <row r="600" spans="10:17">
       <c r="J600" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K600">
         <v>0.06382978723404255</v>
@@ -25258,7 +25210,7 @@
     </row>
     <row r="613" spans="10:17">
       <c r="J613" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K613">
         <v>0.06153846153846154</v>
@@ -25700,7 +25652,7 @@
     </row>
     <row r="630" spans="10:17">
       <c r="J630" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K630">
         <v>0.05555555555555555</v>
@@ -25986,7 +25938,7 @@
     </row>
     <row r="641" spans="10:17">
       <c r="J641" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K641">
         <v>0.05521472392638037</v>
@@ -26142,7 +26094,7 @@
     </row>
     <row r="647" spans="10:17">
       <c r="J647" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K647">
         <v>0.05263157894736842</v>
@@ -26506,7 +26458,7 @@
     </row>
     <row r="661" spans="10:17">
       <c r="J661" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K661">
         <v>0.04899135446685879</v>
@@ -26584,7 +26536,7 @@
     </row>
     <row r="664" spans="10:17">
       <c r="J664" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K664">
         <v>0.04761904761904762</v>
@@ -26636,7 +26588,7 @@
     </row>
     <row r="666" spans="10:17">
       <c r="J666" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K666">
         <v>0.04680851063829787</v>
@@ -27390,7 +27342,7 @@
     </row>
     <row r="695" spans="10:17">
       <c r="J695" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K695">
         <v>0.04</v>
@@ -27416,7 +27368,7 @@
     </row>
     <row r="696" spans="10:17">
       <c r="J696" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K696">
         <v>0.03855421686746988</v>
@@ -27546,7 +27498,7 @@
     </row>
     <row r="701" spans="10:17">
       <c r="J701" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K701">
         <v>0.03846153846153846</v>
@@ -27936,7 +27888,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K716">
         <v>0.03382731958762886</v>
@@ -28196,7 +28148,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K726">
         <v>0.03225806451612903</v>
@@ -28274,7 +28226,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K729">
         <v>0.03191489361702127</v>
@@ -28456,7 +28408,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K736">
         <v>0.03</v>
@@ -28846,7 +28798,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K751">
         <v>0.02666666666666667</v>
@@ -29002,7 +28954,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K757">
         <v>0.02540415704387991</v>
@@ -29054,7 +29006,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K759">
         <v>0.02465331278890601</v>
@@ -30744,7 +30696,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K824">
         <v>0.008849557522123894</v>
@@ -30874,7 +30826,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K829">
         <v>0.006557377049180328</v>
@@ -30926,7 +30878,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K831">
         <v>0.004145077720207254</v>
